--- a/biology/Botanique/Salpichroa_origanifolia/Salpichroa_origanifolia.xlsx
+++ b/biology/Botanique/Salpichroa_origanifolia/Salpichroa_origanifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Muguet des pampas
-Salpichroa origanifolia, le muguet des pampas[1], est une espèce de plante vivace de la famille des Solanaceae.
+Salpichroa origanifolia, le muguet des pampas, est une espèce de plante vivace de la famille des Solanaceae.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante rampante, velue, rameuse, atteignant 1,5 m de haut, présente des feuilles entières, simples, longues de 15 à 25 mm et, de juillet à septembre, des fleurs axillaires, solitaires, dont la corolle blanche, en forme de clochette, mesure 6 à 10 mm de long.
-Sa floraison a lieu de mai à octobre[2].
+Sa floraison a lieu de mai à octobre.
 </t>
         </is>
       </c>
@@ -544,11 +558,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Originaire d'Amérique du Sud, elle est naturalisée dans de nombreuses régions au climat doux.
-France
-En France elle se rencontre sur le littoral (Corse incluse)[1].
 </t>
         </is>
       </c>
@@ -574,12 +588,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France elle se rencontre sur le littoral (Corse incluse).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Salpichroa_origanifolia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Salpichroa_origanifolia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La baie blanc-crème, d'un diamètre de 10 à 15 mm, est comestible et sert à faire des conserves en Argentine et au Paraguay[1].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La baie blanc-crème, d'un diamètre de 10 à 15 mm, est comestible et sert à faire des conserves en Argentine et au Paraguay.</t>
         </is>
       </c>
     </row>
